--- a/biology/Biochimie/Karl_Meyer_(biochimiste)/Karl_Meyer_(biochimiste).xlsx
+++ b/biology/Biochimie/Karl_Meyer_(biochimiste)/Karl_Meyer_(biochimiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Meyer (4 septembre 1899 - 18 mai 1990) est un biochimiste allemand. Il travaille sur le tissu conjonctif et détermine les propriétés de l'hyaluronane dans les années 1930 [1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Meyer (4 septembre 1899 - 18 mai 1990) est un biochimiste allemand. Il travaille sur le tissu conjonctif et détermine les propriétés de l'hyaluronane dans les années 1930 ,.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né le 4 septembre 1899 à Kerpen, en Allemagne. Meyer étudie la médecine et obtient son doctorat de l'Université de Cologne en 1924. Il part à Berlin et obtient un doctorat en chimie de la Kaiser Wilhelm Society en 1927. En 1930, Herbert Evans invite Meyer à travailler comme professeur adjoint à l'Université de Californie à Berkeley. Il part ensuite à New York et travaille à l'Université Columbia pour faire des recherches sur l'Acide hyaluronique.
-Résident de Teaneck, New Jersey, Meyer est décédé à l'âge de 90 ans le 18 mai 1990 dans une maison de retraite à proximité de Cresskill [3].
-En 1956, il reçoit le Prix Albert-Lasker pour la recherche médicale fondamentale et en 1965, il devient membre de l'Académie américaine des arts et des sciences [4]
-et en 1967 il est membre de l'Académie nationale des sciences [5].
+Résident de Teaneck, New Jersey, Meyer est décédé à l'âge de 90 ans le 18 mai 1990 dans une maison de retraite à proximité de Cresskill .
+En 1956, il reçoit le Prix Albert-Lasker pour la recherche médicale fondamentale et en 1965, il devient membre de l'Académie américaine des arts et des sciences 
+et en 1967 il est membre de l'Académie nationale des sciences .
 La Society for Complex Carbohydrates (aujourd'hui Society for Glycobiology ) décerne le prix Karl Meyer depuis 1991.
 </t>
         </is>
